--- a/Assets/Resources/MasterData/ItemData.xlsx
+++ b/Assets/Resources/MasterData/ItemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ゲーム開発Ⅳ\UnityProject\2DRoguelikeSubject\Assets\Resources\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\2DRoguelike_\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB09B990-1ADD-43EB-87AB-4A5D2140CB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517EE6EF-7D97-4EF2-9B3C-7A21690FD461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="-15210" windowWidth="12465" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemData" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,10 +37,6 @@
   </si>
   <si>
     <t>category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>effectID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -78,6 +65,10 @@
   </si>
   <si>
     <t>select</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>actionID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -429,7 +420,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -452,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -471,10 +462,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -490,10 +481,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -509,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -547,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -566,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -585,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -604,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -623,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -642,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -661,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -698,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -706,7 +697,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -714,7 +705,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
